--- a/medicine/Enfance/Alice_et_la_Soucoupe_volante/Alice_et_la_Soucoupe_volante.xlsx
+++ b/medicine/Enfance/Alice_et_la_Soucoupe_volante/Alice_et_la_Soucoupe_volante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et la Soucoupe volante (titre original : The Flying Saucer Mystery) est le cinquante-huitième[1] roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. Le roman a été écrit par Ruth Sanderson (en).
+Alice et la Soucoupe volante (titre original : The Flying Saucer Mystery) est le cinquante-huitième roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. Le roman a été écrit par Ruth Sanderson (en).
 Aux États-Unis, le roman a été publié pour la première fois en 1980 par Wanderer Books / Simon &amp; Schuster. En France, il est paru pour la première fois en 1983 chez Hachette Jeunesse dans la collection « Masque Jeunesse » sous le no 3.
 Le roman relate une enquête d'Alice relative à une mystérieuse soucoupe volante aperçue par des villageois dans une montagne des Appalaches. Arrivée sur place, Alice aura aussi l'occasion de rechercher l'emplacement d'un lieu dans lequel un homme, dix ans auparavant, avait caché ses biens les plus précieux pour son fils.
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est rédigé sur la base de l'édition française de 1983.
 Mise en place de l'intrigue
@@ -556,7 +570,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy : héroïne de la série, fille de l'avocat James Roy, orpheline de mère.
@@ -605,7 +621,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1983 : Éditions Hachette Jeunesse, collection « Masque Jeunesse » no 3, format de poche souple (français, version originale). Illustré par Jean Sidobre. Texte français de Lisa Rosenbaum. 20 chapitres. 184 p. 
 1988 : Éditions Hachette Jeunesse, collection « Bibliothèque verte » no 440, format de poche souple (français, version originale). Illustré par Jean Sidobre. Texte français de Lisa Rosenbaum. 20 chapitres. 184 p. </t>
